--- a/www/IndicatorsPerCountry/Botswana_TungstenProduction_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_TungstenProduction_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -66,13 +66,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Tungsten Production. http://hdl.handle.net/10622/RV5NJG, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_RV5NJG.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_RV5NJG.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_RV5NJG.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_RV5NJG.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_RV5NJG.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_RV5NJG.bib</t>
   </si>
 </sst>
 </file>
